--- a/Data/Array Target Characterisation.xlsx
+++ b/Data/Array Target Characterisation.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26202"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfc365.sharepoint.com/sites/TargetFabrication2/Shared Documents/1. Expt Planning/GTA 1022 Borghesi/3. Delivery/Characterisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_FE310490A0B32A38BD8A12762798BD300347D4B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0F6C495-5DFF-4697-8565-2D411FA9B964}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>Array</t>
   </si>
@@ -33,6 +45,15 @@
   </si>
   <si>
     <t>Column</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Thickness (um)</t>
+  </si>
+  <si>
+    <t>Width (um)</t>
   </si>
   <si>
     <t>Max height</t>
@@ -53,14 +74,17 @@
     <t>C</t>
   </si>
   <si>
+    <t>Au</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,25 +216,7 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -221,6 +227,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -242,20 +266,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>433531</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>180984</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>185881</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152409</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -267,8 +297,8 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5372100" y="76200"/>
+        <a:xfrm rot="21587408">
+          <a:off x="5124450" y="228600"/>
           <a:ext cx="3853006" cy="4505334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -543,744 +573,971 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="2" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="13.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="11">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="11">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="11">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="9"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="5">
         <v>4</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="9"/>
+      <c r="B6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="11">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="11">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="5">
         <v>3</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="11">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="9"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="5">
         <v>4</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="9"/>
+      <c r="B10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="11">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="5">
         <v>2</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="11">
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>300</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="9"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="5">
         <v>3</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="11">
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="5">
+        <v>300</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="9"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="5">
         <v>4</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5" t="s">
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="5">
+        <v>300</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="9"/>
+      <c r="B14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="5">
+        <v>300</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="10"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="7">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="9">
+        <v>2</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C18" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="11">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="5">
         <v>2</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="11">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="5">
         <v>3</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="13">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="9"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="5">
         <v>4</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="9"/>
+      <c r="B22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="5">
         <v>2</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="9"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="5">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="9"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="5">
+        <v>4</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="9"/>
+      <c r="B26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5">
         <v>1</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="11">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="9"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="5">
         <v>2</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="11">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="9"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="5">
         <v>3</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="11">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="9"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="5">
         <v>4</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="11">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="9"/>
+      <c r="B30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="5">
         <v>1</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="11">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="9"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="5">
         <v>2</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="11">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="9"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="5">
         <v>3</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="11">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="10"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="7">
         <v>4</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="11">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="9">
+        <v>3</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="5">
         <v>1</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="11">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="9"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="5">
         <v>2</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="11">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="9"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="5">
         <v>3</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="11">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="9"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="5">
         <v>4</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="5" t="s">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="9"/>
+      <c r="B38" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="9"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="5">
+        <v>2</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="9"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="5">
+        <v>3</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="9"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="5">
+        <v>4</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="9"/>
+      <c r="B42" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="9"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="5">
+        <v>2</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="9"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="5">
+        <v>3</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="9"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="5">
+        <v>4</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="9"/>
+      <c r="B46" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="9"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="5">
+        <v>2</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="9"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="5">
+        <v>3</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="10"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="7">
+        <v>4</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="9">
+        <v>4</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C50" s="5">
         <v>1</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="11">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="9"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="5">
         <v>2</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="11">
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="9"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="5">
         <v>3</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="13">
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="9"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="5">
         <v>4</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="9"/>
+      <c r="B54" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="9"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="5">
+        <v>2</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="9"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="5">
         <v>3</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="11">
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="9"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="5">
+        <v>4</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="9"/>
+      <c r="B58" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="5">
         <v>1</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="11">
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="9"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="5">
         <v>2</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="11">
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="9"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="5">
         <v>3</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="11">
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="9"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="5">
         <v>4</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="11">
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="9"/>
+      <c r="B62" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="5">
         <v>1</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="11">
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="9"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="5">
         <v>2</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="11">
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="9"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="5">
         <v>3</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="11">
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="10"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="7">
         <v>4</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="11">
-        <v>1</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="11">
-        <v>2</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="11">
-        <v>3</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="11">
-        <v>4</v>
-      </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="11">
-        <v>1</v>
-      </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="11">
-        <v>2</v>
-      </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="11">
-        <v>3</v>
-      </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="13">
-        <v>4</v>
-      </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>4</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="11">
-        <v>1</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="11">
-        <v>2</v>
-      </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="11">
-        <v>3</v>
-      </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="11">
-        <v>4</v>
-      </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="11">
-        <v>1</v>
-      </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="11">
-        <v>2</v>
-      </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="11">
-        <v>3</v>
-      </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="11">
-        <v>4</v>
-      </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="11">
-        <v>1</v>
-      </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="11">
-        <v>2</v>
-      </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="11">
-        <v>3</v>
-      </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="11">
-        <v>4</v>
-      </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="11">
-        <v>1</v>
-      </c>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="11">
-        <v>2</v>
-      </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="11">
-        <v>3</v>
-      </c>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="13">
-        <v>4</v>
-      </c>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
     <mergeCell ref="A34:A49"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1288,6 +1545,36 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ApprovalRequested xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xsi:nil="true"/>
+    <ApprovedBy xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </ApprovedBy>
+    <Comments xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xsi:nil="true"/>
+    <Approved_x003f_ xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">false</Approved_x003f_>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="029942aa-539e-4767-81e4-a62063a6e1cb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100695ECA461C232F4AAEC38BDBCF991C34" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="59a9ea53a97323102fd6db9b998f0b5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xmlns:ns3="029942aa-539e-4767-81e4-a62063a6e1cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1df2dcb4e8f42f9041788b58686dd0b" ns2:_="" ns3:_="">
     <xsd:import namespace="b78d6d24-d6db-4d75-9c62-aa5d16939a2a"/>
@@ -1570,76 +1857,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ApprovalRequested xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xsi:nil="true"/>
-    <ApprovedBy xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </ApprovedBy>
-    <Comments xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a" xsi:nil="true"/>
-    <Approved_x003f_ xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">false</Approved_x003f_>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b78d6d24-d6db-4d75-9c62-aa5d16939a2a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="029942aa-539e-4767-81e4-a62063a6e1cb"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72F46C54-F7FE-4881-AE33-32A42E9027D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b78d6d24-d6db-4d75-9c62-aa5d16939a2a"/>
-    <ds:schemaRef ds:uri="029942aa-539e-4767-81e4-a62063a6e1cb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDD6B012-B9AC-4751-AE85-9BF9548DF2A7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C55BA5DB-FABC-42B8-A62D-4229D8279EF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C55BA5DB-FABC-42B8-A62D-4229D8279EF7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDD6B012-B9AC-4751-AE85-9BF9548DF2A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b78d6d24-d6db-4d75-9c62-aa5d16939a2a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="029942aa-539e-4767-81e4-a62063a6e1cb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72F46C54-F7FE-4881-AE33-32A42E9027D0}"/>
 </file>